--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vip-Adcyap1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.3882076666666667</v>
+      </c>
+      <c r="H2">
+        <v>1.164623</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.1847786666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.5543360000000001</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.011963</v>
+        <v>0.2727436666666667</v>
       </c>
       <c r="N2">
-        <v>0.035889</v>
+        <v>0.8182309999999999</v>
       </c>
       <c r="O2">
-        <v>0.001886858915380773</v>
+        <v>0.0516881753217707</v>
       </c>
       <c r="P2">
-        <v>0.001886858915380773</v>
+        <v>0.0516881753217707</v>
       </c>
       <c r="Q2">
-        <v>0.002210507189333333</v>
+        <v>0.1058811824347778</v>
       </c>
       <c r="R2">
-        <v>0.019894564704</v>
+        <v>0.9529306419129999</v>
       </c>
       <c r="S2">
-        <v>0.001886858915380773</v>
+        <v>0.0516881753217707</v>
       </c>
       <c r="T2">
-        <v>0.001886858915380773</v>
+        <v>0.0516881753217707</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1847786666666667</v>
+        <v>0.3882076666666667</v>
       </c>
       <c r="H3">
-        <v>0.5543360000000001</v>
+        <v>1.164623</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>11.102392</v>
       </c>
       <c r="O3">
-        <v>0.5837066323177625</v>
+        <v>0.7013451998115746</v>
       </c>
       <c r="P3">
-        <v>0.5837066323177625</v>
+        <v>0.7013451998115746</v>
       </c>
       <c r="Q3">
-        <v>0.683828396856889</v>
+        <v>1.436677897579556</v>
       </c>
       <c r="R3">
-        <v>6.154455571712002</v>
+        <v>12.930101078216</v>
       </c>
       <c r="S3">
-        <v>0.5837066323177625</v>
+        <v>0.7013451998115746</v>
       </c>
       <c r="T3">
-        <v>0.5837066323177625</v>
+        <v>0.7013451998115746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +655,114 @@
         <v>24</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.3882076666666667</v>
+      </c>
+      <c r="H4">
+        <v>1.164623</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.02191066666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.065732</v>
+      </c>
+      <c r="O4">
+        <v>0.004152332458988515</v>
+      </c>
+      <c r="P4">
+        <v>0.004152332458988515</v>
+      </c>
+      <c r="Q4">
+        <v>0.008505888781777778</v>
+      </c>
+      <c r="R4">
+        <v>0.07655299903599999</v>
+      </c>
+      <c r="S4">
+        <v>0.004152332458988515</v>
+      </c>
+      <c r="T4">
+        <v>0.004152332458988515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.3882076666666667</v>
+      </c>
+      <c r="H5">
+        <v>1.164623</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.1847786666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.5543360000000001</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>2.627406333333333</v>
-      </c>
-      <c r="N4">
-        <v>7.882218999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.4144065087668568</v>
-      </c>
-      <c r="P4">
-        <v>0.4144065087668568</v>
-      </c>
-      <c r="Q4">
-        <v>0.4854886390648889</v>
-      </c>
-      <c r="R4">
-        <v>4.369397751584</v>
-      </c>
-      <c r="S4">
-        <v>0.4144065087668568</v>
-      </c>
-      <c r="T4">
-        <v>0.4144065087668568</v>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.281261333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.843784</v>
+      </c>
+      <c r="O5">
+        <v>0.2428142924076661</v>
+      </c>
+      <c r="P5">
+        <v>0.2428142924076661</v>
+      </c>
+      <c r="Q5">
+        <v>0.4973954726035556</v>
+      </c>
+      <c r="R5">
+        <v>4.476559253432</v>
+      </c>
+      <c r="S5">
+        <v>0.2428142924076661</v>
+      </c>
+      <c r="T5">
+        <v>0.2428142924076661</v>
       </c>
     </row>
   </sheetData>
